--- a/Roleplay_electricity_market.xlsx
+++ b/Roleplay_electricity_market.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34620\Dropbox\AU\COURSES\RES Fall 2021\UNIT 5 Optimization problem_Electricity markets_Dispatch in a single node\ROLE PLAY ELECTRICITY MARKET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34620\Dropbox\AU\GIT_REPOS\roleplay-electricity-market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4D54AB-7C4F-49D8-BF35-503045356881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408F427C-A183-4B83-8F11-267D75ADC457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="06_00" sheetId="1" r:id="rId1"/>
-    <sheet name="11_00" sheetId="2" r:id="rId2"/>
-    <sheet name="17_00" sheetId="3" r:id="rId3"/>
-    <sheet name="20_00" sheetId="4" r:id="rId4"/>
-    <sheet name="04_00" sheetId="5" r:id="rId5"/>
+    <sheet name="example" sheetId="6" r:id="rId1"/>
+    <sheet name="06_00" sheetId="1" r:id="rId2"/>
+    <sheet name="11_00" sheetId="2" r:id="rId3"/>
+    <sheet name="17_00" sheetId="3" r:id="rId4"/>
+    <sheet name="20_00" sheetId="4" r:id="rId5"/>
+    <sheet name="04_00" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="20">
   <si>
     <t>€/MWh</t>
   </si>
@@ -293,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -320,6 +321,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -413,7 +417,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'06_00'!$A$32:$A$33</c:f>
+              <c:f>example!$A$32:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -428,7 +432,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'06_00'!$B$32:$B$33</c:f>
+              <c:f>example!$B$32:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -444,7 +448,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3806-4FFD-902F-8811E5EED2B8}"/>
+              <c16:uniqueId val="{00000000-FDC6-4ADD-A6D0-3D358AB05E28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -465,7 +469,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'06_00'!$A$33:$A$34</c:f>
+              <c:f>example!$A$33:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -480,7 +484,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'06_00'!$B$33:$B$34</c:f>
+              <c:f>example!$B$33:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -496,7 +500,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3806-4FFD-902F-8811E5EED2B8}"/>
+              <c16:uniqueId val="{00000001-FDC6-4ADD-A6D0-3D358AB05E28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -505,7 +509,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06_00'!$A$34:$A$35</c:f>
+              <c:f>example!$A$34:$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -531,7 +535,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'06_00'!$A$34:$A$35</c:f>
+              <c:f>example!$A$34:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -546,7 +550,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'06_00'!$B$34:$B$35</c:f>
+              <c:f>example!$B$34:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -562,7 +566,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3806-4FFD-902F-8811E5EED2B8}"/>
+              <c16:uniqueId val="{00000002-FDC6-4ADD-A6D0-3D358AB05E28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -583,7 +587,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'06_00'!$A$35:$A$36</c:f>
+              <c:f>example!$A$35:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -598,7 +602,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'06_00'!$B$35:$B$36</c:f>
+              <c:f>example!$B$35:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -614,7 +618,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3806-4FFD-902F-8811E5EED2B8}"/>
+              <c16:uniqueId val="{00000003-FDC6-4ADD-A6D0-3D358AB05E28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -623,7 +627,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06_00'!$A$36:$A$37</c:f>
+              <c:f>example!$A$36:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -649,7 +653,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'06_00'!$A$36:$A$37</c:f>
+              <c:f>example!$A$36:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -664,7 +668,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'06_00'!$B$36:$B$37</c:f>
+              <c:f>example!$B$36:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -680,7 +684,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3806-4FFD-902F-8811E5EED2B8}"/>
+              <c16:uniqueId val="{00000004-FDC6-4ADD-A6D0-3D358AB05E28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -701,7 +705,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'06_00'!$A$37:$A$38</c:f>
+              <c:f>example!$A$37:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -716,7 +720,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'06_00'!$B$37:$B$38</c:f>
+              <c:f>example!$B$37:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -732,7 +736,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-3806-4FFD-902F-8811E5EED2B8}"/>
+              <c16:uniqueId val="{00000005-FDC6-4ADD-A6D0-3D358AB05E28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -753,7 +757,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'06_00'!$A$38:$A$39</c:f>
+              <c:f>example!$A$38:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -768,7 +772,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'06_00'!$B$38:$B$39</c:f>
+              <c:f>example!$B$38:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -784,7 +788,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-3806-4FFD-902F-8811E5EED2B8}"/>
+              <c16:uniqueId val="{00000006-FDC6-4ADD-A6D0-3D358AB05E28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -793,7 +797,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'06_00'!$A$39:$A$40</c:f>
+              <c:f>example!$A$39:$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -819,7 +823,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'06_00'!$A$39:$A$40</c:f>
+              <c:f>example!$A$39:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -834,7 +838,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'06_00'!$B$39:$B$40</c:f>
+              <c:f>example!$B$39:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -850,7 +854,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-3806-4FFD-902F-8811E5EED2B8}"/>
+              <c16:uniqueId val="{00000007-FDC6-4ADD-A6D0-3D358AB05E28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -871,7 +875,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'06_00'!$A$41:$A$42</c:f>
+              <c:f>example!$A$41:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -886,7 +890,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'06_00'!$B$41:$B$42</c:f>
+              <c:f>example!$B$41:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -902,7 +906,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-3806-4FFD-902F-8811E5EED2B8}"/>
+              <c16:uniqueId val="{00000008-FDC6-4ADD-A6D0-3D358AB05E28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -923,7 +927,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'06_00'!$A$42:$A$43</c:f>
+              <c:f>example!$A$42:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -938,7 +942,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'06_00'!$B$42:$B$43</c:f>
+              <c:f>example!$B$42:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -954,7 +958,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-3806-4FFD-902F-8811E5EED2B8}"/>
+              <c16:uniqueId val="{00000009-FDC6-4ADD-A6D0-3D358AB05E28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -975,7 +979,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'06_00'!$A$43:$A$44</c:f>
+              <c:f>example!$A$43:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -990,7 +994,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'06_00'!$B$43:$B$44</c:f>
+              <c:f>example!$B$43:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1006,7 +1010,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-3806-4FFD-902F-8811E5EED2B8}"/>
+              <c16:uniqueId val="{0000000A-FDC6-4ADD-A6D0-3D358AB05E28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1027,7 +1031,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'06_00'!$A$44:$A$45</c:f>
+              <c:f>example!$A$44:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1042,7 +1046,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'06_00'!$B$44:$B$45</c:f>
+              <c:f>example!$B$44:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1058,7 +1062,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-3806-4FFD-902F-8811E5EED2B8}"/>
+              <c16:uniqueId val="{0000000B-FDC6-4ADD-A6D0-3D358AB05E28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1079,7 +1083,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'06_00'!$C$32:$C$33</c:f>
+              <c:f>example!$C$32:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1094,7 +1098,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'06_00'!$D$32:$D$33</c:f>
+              <c:f>example!$D$32:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1110,7 +1114,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-3806-4FFD-902F-8811E5EED2B8}"/>
+              <c16:uniqueId val="{0000000C-FDC6-4ADD-A6D0-3D358AB05E28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1131,7 +1135,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'06_00'!$C$33:$C$34</c:f>
+              <c:f>example!$C$33:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1146,7 +1150,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'06_00'!$D$33:$D$34</c:f>
+              <c:f>example!$D$33:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1162,7 +1166,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-3806-4FFD-902F-8811E5EED2B8}"/>
+              <c16:uniqueId val="{0000000D-FDC6-4ADD-A6D0-3D358AB05E28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1183,7 +1187,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'06_00'!$C$34:$C$35</c:f>
+              <c:f>example!$C$34:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1198,7 +1202,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'06_00'!$D$34:$D$35</c:f>
+              <c:f>example!$D$34:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1214,7 +1218,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-3806-4FFD-902F-8811E5EED2B8}"/>
+              <c16:uniqueId val="{0000000E-FDC6-4ADD-A6D0-3D358AB05E28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1235,7 +1239,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'06_00'!$C$35:$C$36</c:f>
+              <c:f>example!$C$35:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1250,7 +1254,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'06_00'!$D$35:$D$36</c:f>
+              <c:f>example!$D$35:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1266,7 +1270,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-3806-4FFD-902F-8811E5EED2B8}"/>
+              <c16:uniqueId val="{0000000F-FDC6-4ADD-A6D0-3D358AB05E28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1287,7 +1291,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'06_00'!$A$40:$A$41</c:f>
+              <c:f>example!$A$40:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1302,7 +1306,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'06_00'!$B$40:$B$41</c:f>
+              <c:f>example!$B$40:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1318,7 +1322,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-3806-4FFD-902F-8811E5EED2B8}"/>
+              <c16:uniqueId val="{00000010-FDC6-4ADD-A6D0-3D358AB05E28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1339,7 +1343,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'06_00'!$C$36:$C$37</c:f>
+              <c:f>example!$C$36:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1354,7 +1358,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'06_00'!$D$36:$D$37</c:f>
+              <c:f>example!$D$36:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1370,7 +1374,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-3806-4FFD-902F-8811E5EED2B8}"/>
+              <c16:uniqueId val="{00000011-FDC6-4ADD-A6D0-3D358AB05E28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1682,9 +1686,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14866141732283464"/>
+          <c:x val="0.16027435595000858"/>
           <c:y val="5.9986379613734091E-2"/>
-          <c:w val="0.78697076658521126"/>
+          <c:w val="0.76614647839903283"/>
           <c:h val="0.74917410942006812"/>
         </c:manualLayout>
       </c:layout>
@@ -1708,22 +1712,22 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'11_00'!$A$32:$A$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300</c:v>
+              <c:f>'06_00'!$A$32:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'11_00'!$B$32:$B$33</c:f>
+              <c:f>'06_00'!$B$32:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1739,7 +1743,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-490A-4C8D-8CF4-B28FB9B4729F}"/>
+              <c16:uniqueId val="{00000000-3806-4FFD-902F-8811E5EED2B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1760,30 +1764,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'11_00'!$A$33:$A$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300</c:v>
+              <c:f>'06_00'!$A$33:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'11_00'!$B$33:$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
+              <c:f>'06_00'!$B$33:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1791,7 +1795,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-490A-4C8D-8CF4-B28FB9B4729F}"/>
+              <c16:uniqueId val="{00000001-3806-4FFD-902F-8811E5EED2B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1800,14 +1804,14 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'11_00'!$A$34:$A$35</c:f>
+              <c:f>'06_00'!$A$34:$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1250</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1826,30 +1830,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'11_00'!$A$34:$A$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1250</c:v>
+              <c:f>'06_00'!$A$34:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'11_00'!$B$34:$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
+              <c:f>'06_00'!$B$34:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1857,7 +1861,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-490A-4C8D-8CF4-B28FB9B4729F}"/>
+              <c16:uniqueId val="{00000002-3806-4FFD-902F-8811E5EED2B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1878,30 +1882,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'11_00'!$A$35:$A$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1250</c:v>
+              <c:f>'06_00'!$A$35:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'11_00'!$B$35:$B$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
+              <c:f>'06_00'!$B$35:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1909,7 +1913,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-490A-4C8D-8CF4-B28FB9B4729F}"/>
+              <c16:uniqueId val="{00000003-3806-4FFD-902F-8811E5EED2B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1918,14 +1922,14 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'11_00'!$A$36:$A$37</c:f>
+              <c:f>'06_00'!$A$36:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2610</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1944,30 +1948,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'11_00'!$A$36:$A$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2610</c:v>
+              <c:f>'06_00'!$A$36:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'11_00'!$B$36:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
+              <c:f>'06_00'!$B$36:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1975,7 +1979,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-490A-4C8D-8CF4-B28FB9B4729F}"/>
+              <c16:uniqueId val="{00000004-3806-4FFD-902F-8811E5EED2B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1996,30 +2000,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'11_00'!$A$37:$A$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2610</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2610</c:v>
+              <c:f>'06_00'!$A$37:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'11_00'!$B$37:$B$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
+              <c:f>'06_00'!$B$37:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2027,7 +2031,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-490A-4C8D-8CF4-B28FB9B4729F}"/>
+              <c16:uniqueId val="{00000005-3806-4FFD-902F-8811E5EED2B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2048,30 +2052,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'11_00'!$A$38:$A$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2610</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3670</c:v>
+              <c:f>'06_00'!$A$38:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'11_00'!$B$38:$B$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
+              <c:f>'06_00'!$B$38:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2079,7 +2083,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-490A-4C8D-8CF4-B28FB9B4729F}"/>
+              <c16:uniqueId val="{00000006-3806-4FFD-902F-8811E5EED2B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2088,14 +2092,14 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'11_00'!$A$39:$A$40</c:f>
+              <c:f>'06_00'!$A$39:$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3670</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3670</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2114,30 +2118,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'11_00'!$A$39:$A$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>3670</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3670</c:v>
+              <c:f>'06_00'!$A$39:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'11_00'!$B$39:$B$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
+              <c:f>'06_00'!$B$39:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2145,7 +2149,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-490A-4C8D-8CF4-B28FB9B4729F}"/>
+              <c16:uniqueId val="{00000007-3806-4FFD-902F-8811E5EED2B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2166,30 +2170,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'11_00'!$A$41:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4170</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4170</c:v>
+              <c:f>'06_00'!$A$41:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'11_00'!$B$41:$B$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>79</c:v>
+              <c:f>'06_00'!$B$41:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2197,7 +2201,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-490A-4C8D-8CF4-B28FB9B4729F}"/>
+              <c16:uniqueId val="{00000008-3806-4FFD-902F-8811E5EED2B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2218,30 +2222,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'11_00'!$A$42:$A$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4170</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5420</c:v>
+              <c:f>'06_00'!$A$42:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'11_00'!$B$42:$B$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>79</c:v>
+              <c:f>'06_00'!$B$42:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2249,7 +2253,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-490A-4C8D-8CF4-B28FB9B4729F}"/>
+              <c16:uniqueId val="{00000009-3806-4FFD-902F-8811E5EED2B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2270,30 +2274,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'11_00'!$A$43:$A$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>5420</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5420</c:v>
+              <c:f>'06_00'!$A$43:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'11_00'!$B$43:$B$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>90</c:v>
+              <c:f>'06_00'!$B$43:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2301,7 +2305,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-490A-4C8D-8CF4-B28FB9B4729F}"/>
+              <c16:uniqueId val="{0000000A-3806-4FFD-902F-8811E5EED2B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2322,30 +2326,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'11_00'!$A$44:$A$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>5420</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6120</c:v>
+              <c:f>'06_00'!$A$44:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'11_00'!$B$44:$B$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>90</c:v>
+              <c:f>'06_00'!$B$44:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2353,7 +2357,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-490A-4C8D-8CF4-B28FB9B4729F}"/>
+              <c16:uniqueId val="{0000000B-3806-4FFD-902F-8811E5EED2B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2374,22 +2378,22 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'11_00'!$C$32:$C$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4000</c:v>
+              <c:f>'06_00'!$C$32:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'11_00'!$D$32:$D$33</c:f>
+              <c:f>'06_00'!$D$32:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2405,7 +2409,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-490A-4C8D-8CF4-B28FB9B4729F}"/>
+              <c16:uniqueId val="{0000000C-3806-4FFD-902F-8811E5EED2B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2426,22 +2430,22 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'11_00'!$C$33:$C$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4000</c:v>
+              <c:f>'06_00'!$C$33:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'11_00'!$D$33:$D$34</c:f>
+              <c:f>'06_00'!$D$33:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2449,7 +2453,7 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2457,7 +2461,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-490A-4C8D-8CF4-B28FB9B4729F}"/>
+              <c16:uniqueId val="{0000000D-3806-4FFD-902F-8811E5EED2B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2478,30 +2482,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'11_00'!$C$34:$C$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5000</c:v>
+              <c:f>'06_00'!$C$34:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'11_00'!$D$34:$D$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
+              <c:f>'06_00'!$D$34:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2509,7 +2513,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-490A-4C8D-8CF4-B28FB9B4729F}"/>
+              <c16:uniqueId val="{0000000E-3806-4FFD-902F-8811E5EED2B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2530,30 +2534,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'11_00'!$C$35:$C$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5000</c:v>
+              <c:f>'06_00'!$C$35:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'11_00'!$D$35:$D$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
+              <c:f>'06_00'!$D$35:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2561,7 +2565,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-490A-4C8D-8CF4-B28FB9B4729F}"/>
+              <c16:uniqueId val="{0000000F-3806-4FFD-902F-8811E5EED2B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2582,30 +2586,30 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'11_00'!$A$40:$A$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>3670</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4170</c:v>
+              <c:f>'06_00'!$A$40:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'11_00'!$B$40:$B$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
+              <c:f>'06_00'!$B$40:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2613,7 +2617,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-490A-4C8D-8CF4-B28FB9B4729F}"/>
+              <c16:uniqueId val="{00000010-3806-4FFD-902F-8811E5EED2B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2634,12 +2638,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'11_00'!$C$36:$C$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>5000</c:v>
+              <c:f>'06_00'!$C$36:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3300</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100000</c:v>
@@ -2649,12 +2653,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'11_00'!$D$36:$D$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+              <c:f>'06_00'!$D$36:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2665,7 +2669,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-490A-4C8D-8CF4-B28FB9B4729F}"/>
+              <c16:uniqueId val="{00000011-3806-4FFD-902F-8811E5EED2B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2977,6 +2981,1301 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
+          <c:x val="0.14866141732283464"/>
+          <c:y val="5.9986379613734091E-2"/>
+          <c:w val="0.78697076658521126"/>
+          <c:h val="0.74917410942006812"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'11_00'!$A$32:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'11_00'!$B$32:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-490A-4C8D-8CF4-B28FB9B4729F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'11_00'!$A$33:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'11_00'!$B$33:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-490A-4C8D-8CF4-B28FB9B4729F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'11_00'!$A$34:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'11_00'!$A$34:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'11_00'!$B$34:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-490A-4C8D-8CF4-B28FB9B4729F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'11_00'!$A$35:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'11_00'!$B$35:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-490A-4C8D-8CF4-B28FB9B4729F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'11_00'!$A$36:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'11_00'!$A$36:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'11_00'!$B$36:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-490A-4C8D-8CF4-B28FB9B4729F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'11_00'!$A$37:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'11_00'!$B$37:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-490A-4C8D-8CF4-B28FB9B4729F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'11_00'!$A$38:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'11_00'!$B$38:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-490A-4C8D-8CF4-B28FB9B4729F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'11_00'!$A$39:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'11_00'!$A$39:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'11_00'!$B$39:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-490A-4C8D-8CF4-B28FB9B4729F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'11_00'!$A$41:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'11_00'!$B$41:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-490A-4C8D-8CF4-B28FB9B4729F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'11_00'!$A$42:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'11_00'!$B$42:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-490A-4C8D-8CF4-B28FB9B4729F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'11_00'!$A$43:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'11_00'!$B$43:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-490A-4C8D-8CF4-B28FB9B4729F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'11_00'!$A$44:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'11_00'!$B$44:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-490A-4C8D-8CF4-B28FB9B4729F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'11_00'!$C$32:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'11_00'!$D$32:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-490A-4C8D-8CF4-B28FB9B4729F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'11_00'!$C$33:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'11_00'!$D$33:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-490A-4C8D-8CF4-B28FB9B4729F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'11_00'!$C$34:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'11_00'!$D$34:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-490A-4C8D-8CF4-B28FB9B4729F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'11_00'!$C$35:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'11_00'!$D$35:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-490A-4C8D-8CF4-B28FB9B4729F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'11_00'!$A$40:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'11_00'!$B$40:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-490A-4C8D-8CF4-B28FB9B4729F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'11_00'!$C$36:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'11_00'!$D$36:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-490A-4C8D-8CF4-B28FB9B4729F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="256342304"/>
+        <c:axId val="256342864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="256342304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1200"/>
+                  <a:t>Energy (MWh)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256342864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="256342864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="160"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1200"/>
+                  <a:t>Price (€/MWh)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256342304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
           <c:x val="0.16719597550306212"/>
           <c:y val="5.9986379613734091E-2"/>
           <c:w val="0.75919291338582673"/>
@@ -3011,7 +4310,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3060,10 +4359,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>140</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3099,10 +4398,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3126,10 +4425,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3178,10 +4477,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3217,10 +4516,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>390</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3244,10 +4543,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>390</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3296,10 +4595,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>390</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3348,10 +4647,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1670</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3387,10 +4686,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1670</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1670</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3414,10 +4713,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1670</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1670</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3466,10 +4765,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3360</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3360</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3518,10 +4817,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3360</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4360</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3570,10 +4869,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4360</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4360</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3622,10 +4921,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4360</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5360</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3882,10 +5181,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1670</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3360</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4251,7 +5550,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4306,7 +5605,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>560</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4355,10 +5654,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>560</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4394,10 +5693,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>560</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4421,10 +5720,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>560</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4473,10 +5772,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>560</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4512,10 +5811,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4360</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4539,10 +5838,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4360</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4591,10 +5890,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4360</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4360</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4643,10 +5942,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4360</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5360</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4682,10 +5981,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5360</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5360</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4709,10 +6008,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5360</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5360</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4761,10 +6060,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6160</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6160</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4813,10 +6112,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6160</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8560</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4865,10 +6164,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8560</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8560</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4917,10 +6216,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8560</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9560</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5177,10 +6476,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5360</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6160</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5546,7 +6845,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5601,7 +6900,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5650,10 +6949,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2500</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5689,10 +6988,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4400</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5716,10 +7015,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4400</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5768,10 +7067,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4400</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5807,10 +7106,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5800</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5834,10 +7133,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5800</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5886,10 +7185,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5800</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5800</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5938,10 +7237,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5800</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6400</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5977,10 +7276,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6400</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6004,10 +7303,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6400</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6056,10 +7355,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7100</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6108,10 +7407,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7100</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6160,10 +7459,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7100</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6212,10 +7511,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7100</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6472,10 +7771,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7100</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7042,6 +8341,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -9622,7 +10961,566 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF5046C-21CC-4A8E-8B80-0C3CB4C2613D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9663,7 +11561,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9706,7 +11604,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9749,7 +11647,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9792,7 +11690,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10097,11 +11995,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74599184-924A-4426-A5CD-77757510650C}">
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10118,22 +12016,665 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="K3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8">
+        <v>120</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9">
+        <f>SUM(C5:H5)</f>
+        <v>120</v>
+      </c>
+      <c r="K5" s="4">
+        <v>150</v>
+      </c>
+      <c r="L5" s="8">
+        <v>3000</v>
+      </c>
+      <c r="M5" s="9">
+        <f>SUM(L5:L5)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B6" s="4">
+        <v>45</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
+        <v>380</v>
+      </c>
+      <c r="G6" s="8">
+        <v>120</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9">
+        <f>SUM(C6:H6)+I5</f>
+        <v>620</v>
+      </c>
+      <c r="K6" s="4">
+        <v>10</v>
+      </c>
+      <c r="L6" s="8">
+        <v>300</v>
+      </c>
+      <c r="M6" s="9">
+        <f>SUM(L6:L6)+M5</f>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="4">
+        <v>60</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>400</v>
+      </c>
+      <c r="F7" s="8">
+        <v>380</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8">
+        <v>40</v>
+      </c>
+      <c r="I7" s="9">
+        <f>SUM(C7:H7)+I6</f>
+        <v>2440</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11">
+        <f>SUM(L7:L7)+M6</f>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B8" s="4">
+        <v>70</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8">
+        <v>40</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" ref="I8:I11" si="0">SUM(C8:H8)+I7</f>
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B9" s="4">
+        <v>80</v>
+      </c>
+      <c r="C9" s="8">
+        <v>500</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <v>400</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9">
+        <f t="shared" si="0"/>
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B10" s="4">
+        <v>110</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
+        <v>750</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9">
+        <f t="shared" si="0"/>
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="5">
+        <v>120</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10">
+        <v>750</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11">
+        <f t="shared" si="0"/>
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B12" s="6"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="12">
+        <v>2400</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2200</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="13">
+        <v>3700</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1200</v>
+      </c>
+      <c r="H13" s="13">
+        <v>700</v>
+      </c>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="24"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <f>B5</f>
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f>K5</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <f>I5</f>
+        <v>120</v>
+      </c>
+      <c r="B33">
+        <f>B32</f>
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f>M5</f>
+        <v>3000</v>
+      </c>
+      <c r="D33">
+        <f>K5</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <f>A33</f>
+        <v>120</v>
+      </c>
+      <c r="B34">
+        <f>B6</f>
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <f>C33</f>
+        <v>3000</v>
+      </c>
+      <c r="D34">
+        <f>K6</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <f>I6</f>
+        <v>620</v>
+      </c>
+      <c r="B35">
+        <f>B34</f>
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <f>M6</f>
+        <v>3300</v>
+      </c>
+      <c r="D35">
+        <f>D34</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <f>A35</f>
+        <v>620</v>
+      </c>
+      <c r="B36">
+        <f>B7</f>
+        <v>60</v>
+      </c>
+      <c r="C36">
+        <f>C35</f>
+        <v>3300</v>
+      </c>
+      <c r="D36">
+        <f>K7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <f>I7</f>
+        <v>2440</v>
+      </c>
+      <c r="B37">
+        <f>B36</f>
+        <v>60</v>
+      </c>
+      <c r="C37">
+        <v>100000</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <f>A37</f>
+        <v>2440</v>
+      </c>
+      <c r="B38">
+        <f>B8</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <f>I8</f>
+        <v>2480</v>
+      </c>
+      <c r="B39">
+        <f>B38</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <f>A39</f>
+        <v>2480</v>
+      </c>
+      <c r="B40">
+        <f>B9</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <f>I9</f>
+        <v>3380</v>
+      </c>
+      <c r="B41">
+        <f>B40</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <f>A41</f>
+        <v>3380</v>
+      </c>
+      <c r="B42">
+        <f>B10</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <f>I10</f>
+        <v>4130</v>
+      </c>
+      <c r="B43">
+        <f>B42</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <f>A43</f>
+        <v>4130</v>
+      </c>
+      <c r="B44">
+        <f>B11</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <f>I11</f>
+        <v>4880</v>
+      </c>
+      <c r="B45">
+        <f>B44</f>
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" customWidth="1"/>
+    <col min="10" max="10" width="3.7265625" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
@@ -10146,21 +12687,21 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="K3" s="18" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="K3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4" s="15" t="s">
@@ -10205,13 +12746,11 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="8">
-        <v>120</v>
-      </c>
+      <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="9">
         <f>SUM(C5:H5)</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4">
         <v>150</v>
@@ -10231,16 +12770,12 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="8">
-        <v>380</v>
-      </c>
-      <c r="G6" s="8">
-        <v>120</v>
-      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="9">
         <f>SUM(C6:H6)+I5</f>
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
         <v>10</v>
@@ -10257,23 +12792,15 @@
       <c r="B7" s="4">
         <v>60</v>
       </c>
-      <c r="C7" s="8">
-        <v>1000</v>
-      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="8">
-        <v>400</v>
-      </c>
-      <c r="F7" s="8">
-        <v>380</v>
-      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="8">
-        <v>40</v>
-      </c>
+      <c r="H7" s="8"/>
       <c r="I7" s="9">
         <f>SUM(C7:H7)+I6</f>
-        <v>2440</v>
+        <v>0</v>
       </c>
       <c r="K7" s="5">
         <v>0</v>
@@ -10293,31 +12820,25 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="8">
-        <v>40</v>
-      </c>
+      <c r="H8" s="8"/>
       <c r="I8" s="9">
         <f t="shared" ref="I8:I11" si="0">SUM(C8:H8)+I7</f>
-        <v>2480</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <v>80</v>
       </c>
-      <c r="C9" s="8">
-        <v>500</v>
-      </c>
+      <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="8">
-        <v>400</v>
-      </c>
+      <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="9">
         <f t="shared" si="0"/>
-        <v>3380</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -10325,16 +12846,14 @@
         <v>110</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="8">
-        <v>750</v>
-      </c>
+      <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9">
         <f t="shared" si="0"/>
-        <v>4130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10342,16 +12861,14 @@
         <v>120</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="10">
-        <v>750</v>
-      </c>
+      <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="11">
         <f t="shared" si="0"/>
-        <v>4880</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -10365,10 +12882,10 @@
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="12">
         <v>2400</v>
       </c>
@@ -10530,14 +13047,14 @@
       <c r="I27" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="23"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
@@ -10558,7 +13075,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <f>I5</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="B33">
         <f>B32</f>
@@ -10576,7 +13093,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <f>A33</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="B34">
         <f>B6</f>
@@ -10594,7 +13111,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <f>I6</f>
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="B35">
         <f>B34</f>
@@ -10612,7 +13129,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <f>A35</f>
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="B36">
         <f>B7</f>
@@ -10630,7 +13147,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <f>I7</f>
-        <v>2440</v>
+        <v>0</v>
       </c>
       <c r="B37">
         <f>B36</f>
@@ -10646,7 +13163,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <f>A37</f>
-        <v>2440</v>
+        <v>0</v>
       </c>
       <c r="B38">
         <f>B8</f>
@@ -10656,7 +13173,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <f>I8</f>
-        <v>2480</v>
+        <v>0</v>
       </c>
       <c r="B39">
         <f>B38</f>
@@ -10666,7 +13183,7 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <f>A39</f>
-        <v>2480</v>
+        <v>0</v>
       </c>
       <c r="B40">
         <f>B9</f>
@@ -10676,7 +13193,7 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <f>I9</f>
-        <v>3380</v>
+        <v>0</v>
       </c>
       <c r="B41">
         <f>B40</f>
@@ -10686,7 +13203,7 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <f>A41</f>
-        <v>3380</v>
+        <v>0</v>
       </c>
       <c r="B42">
         <f>B10</f>
@@ -10696,7 +13213,7 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <f>I10</f>
-        <v>4130</v>
+        <v>0</v>
       </c>
       <c r="B43">
         <f>B42</f>
@@ -10706,7 +13223,7 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <f>A43</f>
-        <v>4130</v>
+        <v>0</v>
       </c>
       <c r="B44">
         <f>B11</f>
@@ -10716,7 +13233,7 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <f>I11</f>
-        <v>4880</v>
+        <v>0</v>
       </c>
       <c r="B45">
         <f>B44</f>
@@ -10739,12 +13256,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C5" sqref="C5:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10761,22 +13278,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="14"/>
@@ -10789,21 +13306,21 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="K3" s="18" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="K3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4" s="15" t="s">
@@ -10847,14 +13364,12 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="8">
-        <v>300</v>
-      </c>
+      <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="9">
         <f>SUM(C5:H5)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4">
         <v>150</v>
@@ -10874,14 +13389,12 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="8">
-        <v>950</v>
-      </c>
+      <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="9">
         <f>SUM(C6:H6)+I5</f>
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
         <v>20</v>
@@ -10898,20 +13411,15 @@
       <c r="B7" s="4">
         <v>35</v>
       </c>
-      <c r="C7" s="8">
-        <f>500+500</f>
-        <v>1000</v>
-      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="8">
-        <v>360</v>
-      </c>
+      <c r="H7" s="8"/>
       <c r="I7" s="9">
         <f>SUM(C7:H7)+I6</f>
-        <v>2610</v>
+        <v>0</v>
       </c>
       <c r="K7" s="5">
         <v>1</v>
@@ -10930,19 +13438,13 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="8">
-        <v>400</v>
-      </c>
+      <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="8">
-        <v>300</v>
-      </c>
-      <c r="H8" s="8">
-        <v>360</v>
-      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="9">
         <f t="shared" ref="I8:I11" si="0">SUM(C8:H8)+I7</f>
-        <v>3670</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -10951,15 +13453,13 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="8">
-        <v>500</v>
-      </c>
+      <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="9">
         <f t="shared" si="0"/>
-        <v>4170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -10967,18 +13467,14 @@
         <v>79</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="8">
-        <v>300</v>
-      </c>
+      <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="8">
-        <v>950</v>
-      </c>
+      <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9">
         <f t="shared" si="0"/>
-        <v>5420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10986,16 +13482,14 @@
         <v>90</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="10">
-        <v>700</v>
-      </c>
+      <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="11">
         <f t="shared" si="0"/>
-        <v>6120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -11009,10 +13503,10 @@
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="12">
         <v>2400</v>
       </c>
@@ -11174,14 +13668,14 @@
       <c r="I27" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="23"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
@@ -11202,7 +13696,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <f>I5</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="B33">
         <f>B32</f>
@@ -11220,7 +13714,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <f>A33</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="B34">
         <f>B6</f>
@@ -11238,7 +13732,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <f>I6</f>
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="B35">
         <f>B34</f>
@@ -11256,7 +13750,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <f>A35</f>
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="B36">
         <f>B7</f>
@@ -11274,7 +13768,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <f>I7</f>
-        <v>2610</v>
+        <v>0</v>
       </c>
       <c r="B37">
         <f>B36</f>
@@ -11290,7 +13784,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <f>A37</f>
-        <v>2610</v>
+        <v>0</v>
       </c>
       <c r="B38">
         <f>B8</f>
@@ -11300,7 +13794,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <f>I8</f>
-        <v>3670</v>
+        <v>0</v>
       </c>
       <c r="B39">
         <f>B38</f>
@@ -11310,7 +13804,7 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <f>A39</f>
-        <v>3670</v>
+        <v>0</v>
       </c>
       <c r="B40">
         <f>B9</f>
@@ -11320,7 +13814,7 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <f>I9</f>
-        <v>4170</v>
+        <v>0</v>
       </c>
       <c r="B41">
         <f>B40</f>
@@ -11330,7 +13824,7 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <f>A41</f>
-        <v>4170</v>
+        <v>0</v>
       </c>
       <c r="B42">
         <f>B10</f>
@@ -11340,7 +13834,7 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <f>I10</f>
-        <v>5420</v>
+        <v>0</v>
       </c>
       <c r="B43">
         <f>B42</f>
@@ -11350,7 +13844,7 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <f>A43</f>
-        <v>5420</v>
+        <v>0</v>
       </c>
       <c r="B44">
         <f>B11</f>
@@ -11360,652 +13854,11 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <f>I11</f>
-        <v>6120</v>
+        <v>0</v>
       </c>
       <c r="B45">
         <f>B44</f>
         <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="A13:B13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M45"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" customWidth="1"/>
-    <col min="10" max="10" width="3.7265625" customWidth="1"/>
-    <col min="12" max="12" width="16.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="K3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8">
-        <v>60</v>
-      </c>
-      <c r="H5" s="8">
-        <v>80</v>
-      </c>
-      <c r="I5" s="9">
-        <f>SUM(C5:H5)</f>
-        <v>140</v>
-      </c>
-      <c r="K5" s="4">
-        <v>190</v>
-      </c>
-      <c r="L5" s="8">
-        <v>4500</v>
-      </c>
-      <c r="M5" s="9">
-        <f>SUM(L5:L5)</f>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B6" s="4">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8">
-        <v>60</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9">
-        <f>SUM(C6:H6)+I5</f>
-        <v>200</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="9">
-        <f>SUM(L6:L6)+M5</f>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="4">
-        <v>30</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8">
-        <v>190</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9">
-        <f>SUM(C7:H7)+I6</f>
-        <v>390</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11">
-        <f>SUM(L7:L7)+M6</f>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B8" s="4">
-        <v>55</v>
-      </c>
-      <c r="C8" s="8">
-        <v>700</v>
-      </c>
-      <c r="D8" s="8">
-        <v>500</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8">
-        <v>80</v>
-      </c>
-      <c r="I8" s="9">
-        <f t="shared" ref="I8:I11" si="0">SUM(C8:H8)+I7</f>
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="4">
-        <v>80</v>
-      </c>
-      <c r="C9" s="8">
-        <v>500</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="8">
-        <v>190</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9">
-        <f t="shared" si="0"/>
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B10" s="4">
-        <v>90</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9">
-        <f t="shared" si="0"/>
-        <v>4360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="5">
-        <v>150</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11">
-        <f t="shared" si="0"/>
-        <v>5360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B12" s="6"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="12">
-        <v>2400</v>
-      </c>
-      <c r="D13" s="13">
-        <v>2200</v>
-      </c>
-      <c r="E13" s="12">
-        <v>1000</v>
-      </c>
-      <c r="F13" s="13">
-        <v>3700</v>
-      </c>
-      <c r="G13" s="13">
-        <v>1200</v>
-      </c>
-      <c r="H13" s="13">
-        <v>700</v>
-      </c>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="23"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <f>B5</f>
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <f>K5</f>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <f>I5</f>
-        <v>140</v>
-      </c>
-      <c r="B33">
-        <f>B32</f>
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <f>M5</f>
-        <v>4500</v>
-      </c>
-      <c r="D33">
-        <f>K5</f>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <f>A33</f>
-        <v>140</v>
-      </c>
-      <c r="B34">
-        <f>B6</f>
-        <v>10</v>
-      </c>
-      <c r="C34">
-        <f>C33</f>
-        <v>4500</v>
-      </c>
-      <c r="D34">
-        <f>K6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <f>I6</f>
-        <v>200</v>
-      </c>
-      <c r="B35">
-        <f>B34</f>
-        <v>10</v>
-      </c>
-      <c r="C35">
-        <f>M6</f>
-        <v>4500</v>
-      </c>
-      <c r="D35">
-        <f>D34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <f>A35</f>
-        <v>200</v>
-      </c>
-      <c r="B36">
-        <f>B7</f>
-        <v>30</v>
-      </c>
-      <c r="C36">
-        <f>C35</f>
-        <v>4500</v>
-      </c>
-      <c r="D36">
-        <f>K7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <f>I7</f>
-        <v>390</v>
-      </c>
-      <c r="B37">
-        <f>B36</f>
-        <v>30</v>
-      </c>
-      <c r="C37">
-        <v>100000</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <f>A37</f>
-        <v>390</v>
-      </c>
-      <c r="B38">
-        <f>B8</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <f>I8</f>
-        <v>1670</v>
-      </c>
-      <c r="B39">
-        <f>B38</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <f>A39</f>
-        <v>1670</v>
-      </c>
-      <c r="B40">
-        <f>B9</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <f>I9</f>
-        <v>3360</v>
-      </c>
-      <c r="B41">
-        <f>B40</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <f>A41</f>
-        <v>3360</v>
-      </c>
-      <c r="B42">
-        <f>B10</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <f>I10</f>
-        <v>4360</v>
-      </c>
-      <c r="B43">
-        <f>B42</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <f>A43</f>
-        <v>4360</v>
-      </c>
-      <c r="B44">
-        <f>B11</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <f>I11</f>
-        <v>5360</v>
-      </c>
-      <c r="B45">
-        <f>B44</f>
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -12025,11 +13878,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12046,22 +13899,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="K1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="14"/>
@@ -12074,21 +13927,21 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="K3" s="18" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="K3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4" s="15" t="s">
@@ -12133,25 +13986,21 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="8">
-        <v>480</v>
-      </c>
-      <c r="H5" s="8">
-        <v>80</v>
-      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="9">
         <f>SUM(C5:H5)</f>
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="L5" s="8">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M5" s="9">
         <f>SUM(L5:L5)</f>
-        <v>5500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -12166,40 +14015,30 @@
       <c r="H6" s="8"/>
       <c r="I6" s="9">
         <f>SUM(C6:H6)+I5</f>
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
-        <v>40</v>
-      </c>
-      <c r="L6" s="8">
-        <v>300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L6" s="8"/>
       <c r="M6" s="9">
         <f>SUM(L6:L6)+M5</f>
-        <v>5800</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="8">
-        <f>500+500</f>
-        <v>1000</v>
-      </c>
-      <c r="F7" s="8">
-        <f>1520+800</f>
-        <v>2320</v>
-      </c>
-      <c r="G7" s="8">
-        <v>480</v>
-      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="9">
         <f>SUM(C7:H7)+I6</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="K7" s="5">
         <v>0</v>
@@ -12207,53 +14046,44 @@
       <c r="L7" s="10"/>
       <c r="M7" s="11">
         <f>SUM(L7:L7)+M6</f>
-        <v>5800</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="8">
-        <v>1000</v>
-      </c>
+      <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="9">
         <f t="shared" ref="I8:I11" si="0">SUM(C8:H8)+I7</f>
-        <v>5360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8">
-        <v>720</v>
-      </c>
+      <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="8">
-        <v>80</v>
-      </c>
+      <c r="H9" s="8"/>
       <c r="I9" s="9">
         <f t="shared" si="0"/>
-        <v>6160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
-        <v>100</v>
-      </c>
-      <c r="C10" s="8">
-        <f>1200+1200</f>
-        <v>2400</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -12261,7 +14091,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="9">
         <f t="shared" si="0"/>
-        <v>8560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12269,16 +14099,14 @@
         <v>150</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="10">
-        <v>1000</v>
-      </c>
+      <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="11">
         <f t="shared" si="0"/>
-        <v>9560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -12292,10 +14120,10 @@
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="12">
         <v>2400</v>
       </c>
@@ -12457,14 +14285,14 @@
       <c r="I27" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="23"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
@@ -12479,13 +14307,13 @@
       </c>
       <c r="D32">
         <f>K5</f>
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <f>I5</f>
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="B33">
         <f>B32</f>
@@ -12493,17 +14321,17 @@
       </c>
       <c r="C33">
         <f>M5</f>
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="D33">
         <f>K5</f>
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <f>A33</f>
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="B34">
         <f>B6</f>
@@ -12511,17 +14339,17 @@
       </c>
       <c r="C34">
         <f>C33</f>
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="D34">
         <f>K6</f>
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <f>I6</f>
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="B35">
         <f>B34</f>
@@ -12529,25 +14357,25 @@
       </c>
       <c r="C35">
         <f>M6</f>
-        <v>5800</v>
+        <v>4500</v>
       </c>
       <c r="D35">
         <f>D34</f>
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <f>A35</f>
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="B36">
         <f>B7</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C36">
         <f>C35</f>
-        <v>5800</v>
+        <v>4500</v>
       </c>
       <c r="D36">
         <f>K7</f>
@@ -12557,11 +14385,11 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <f>I7</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="B37">
         <f>B36</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C37">
         <v>100000</v>
@@ -12573,67 +14401,67 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <f>A37</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="B38">
         <f>B8</f>
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <f>I8</f>
-        <v>5360</v>
+        <v>0</v>
       </c>
       <c r="B39">
         <f>B38</f>
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <f>A39</f>
-        <v>5360</v>
+        <v>0</v>
       </c>
       <c r="B40">
         <f>B9</f>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <f>I9</f>
-        <v>6160</v>
+        <v>0</v>
       </c>
       <c r="B41">
         <f>B40</f>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <f>A41</f>
-        <v>6160</v>
+        <v>0</v>
       </c>
       <c r="B42">
         <f>B10</f>
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <f>I10</f>
-        <v>8560</v>
+        <v>0</v>
       </c>
       <c r="B43">
         <f>B42</f>
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <f>A43</f>
-        <v>8560</v>
+        <v>0</v>
       </c>
       <c r="B44">
         <f>B11</f>
@@ -12643,7 +14471,7 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <f>I11</f>
-        <v>9560</v>
+        <v>0</v>
       </c>
       <c r="B45">
         <f>B44</f>
@@ -12667,11 +14495,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12688,22 +14516,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="K1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="14"/>
@@ -12716,21 +14544,21 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="K3" s="18" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="K3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4" s="15" t="s">
@@ -12774,70 +14602,62 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="8">
-        <v>1900</v>
-      </c>
-      <c r="G5" s="8">
-        <v>600</v>
-      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="9">
         <f>SUM(C5:H5)</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4">
         <v>150</v>
       </c>
       <c r="L5" s="8">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="M5" s="9">
         <f>SUM(L5:L5)</f>
-        <v>2000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="8">
-        <v>1900</v>
-      </c>
+      <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="9">
         <f>SUM(C6:H6)+I5</f>
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="L6" s="8">
+        <v>300</v>
+      </c>
       <c r="M6" s="9">
         <f>SUM(L6:L6)+M5</f>
-        <v>2000</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8">
-        <v>800</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="8">
-        <v>600</v>
-      </c>
+      <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="9">
         <f>SUM(C7:H7)+I6</f>
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="K7" s="5">
         <v>0</v>
@@ -12845,46 +14665,42 @@
       <c r="L7" s="10"/>
       <c r="M7" s="11">
         <f>SUM(L7:L7)+M6</f>
-        <v>2000</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="8">
-        <v>600</v>
-      </c>
+      <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="9">
         <f t="shared" ref="I8:I11" si="0">SUM(C8:H8)+I7</f>
-        <v>6400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="8">
-        <v>700</v>
-      </c>
+      <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="9">
         <f t="shared" si="0"/>
-        <v>7100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -12894,7 +14710,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="9">
         <f t="shared" si="0"/>
-        <v>7100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12909,7 +14725,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="11">
         <f t="shared" si="0"/>
-        <v>7100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -12923,10 +14739,10 @@
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="12">
         <v>2400</v>
       </c>
@@ -13088,14 +14904,14 @@
       <c r="I27" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="23"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
@@ -13116,7 +14932,624 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <f>I5</f>
-        <v>2500</v>
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <f>B32</f>
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f>M5</f>
+        <v>5500</v>
+      </c>
+      <c r="D33">
+        <f>K5</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <f>A33</f>
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <f>B6</f>
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <f>C33</f>
+        <v>5500</v>
+      </c>
+      <c r="D34">
+        <f>K6</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <f>I6</f>
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <f>B34</f>
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <f>M6</f>
+        <v>5800</v>
+      </c>
+      <c r="D35">
+        <f>D34</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <f>A35</f>
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <f>B7</f>
+        <v>50</v>
+      </c>
+      <c r="C36">
+        <f>C35</f>
+        <v>5800</v>
+      </c>
+      <c r="D36">
+        <f>K7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <f>I7</f>
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <f>B36</f>
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>100000</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <f>A37</f>
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <f>B8</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <f>I8</f>
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <f>B38</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <f>A39</f>
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <f>B9</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <f>I9</f>
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <f>B40</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <f>A41</f>
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <f>B10</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <f>I10</f>
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <f>B42</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <f>A43</f>
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <f>B11</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <f>I11</f>
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <f>B44</f>
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M45"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" customWidth="1"/>
+    <col min="10" max="10" width="3.7265625" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="K3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9">
+        <f>SUM(C5:H5)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>150</v>
+      </c>
+      <c r="L5" s="8">
+        <v>2000</v>
+      </c>
+      <c r="M5" s="9">
+        <f>SUM(L5:L5)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9">
+        <f>SUM(C6:H6)+I5</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9">
+        <f>SUM(L6:L6)+M5</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="4">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9">
+        <f>SUM(C7:H7)+I6</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11">
+        <f>SUM(L7:L7)+M6</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B8" s="4">
+        <v>21</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9">
+        <f t="shared" ref="I8:I11" si="0">SUM(C8:H8)+I7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B9" s="4">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B10" s="4">
+        <v>120</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="5">
+        <v>150</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B12" s="6"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="12">
+        <v>2400</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2200</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="13">
+        <v>3700</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1200</v>
+      </c>
+      <c r="H13" s="13">
+        <v>700</v>
+      </c>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="24"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <f>B5</f>
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f>K5</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <f>I5</f>
+        <v>0</v>
       </c>
       <c r="B33">
         <f>B32</f>
@@ -13134,7 +15567,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <f>A33</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="B34">
         <f>B6</f>
@@ -13152,7 +15585,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <f>I6</f>
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="B35">
         <f>B34</f>
@@ -13170,7 +15603,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <f>A35</f>
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="B36">
         <f>B7</f>
@@ -13188,7 +15621,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <f>I7</f>
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="B37">
         <f>B36</f>
@@ -13204,7 +15637,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <f>A37</f>
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="B38">
         <f>B8</f>
@@ -13214,7 +15647,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <f>I8</f>
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="B39">
         <f>B38</f>
@@ -13224,7 +15657,7 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <f>A39</f>
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="B40">
         <f>B9</f>
@@ -13234,7 +15667,7 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <f>I9</f>
-        <v>7100</v>
+        <v>0</v>
       </c>
       <c r="B41">
         <f>B40</f>
@@ -13244,7 +15677,7 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <f>A41</f>
-        <v>7100</v>
+        <v>0</v>
       </c>
       <c r="B42">
         <f>B10</f>
@@ -13254,7 +15687,7 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <f>I10</f>
-        <v>7100</v>
+        <v>0</v>
       </c>
       <c r="B43">
         <f>B42</f>
@@ -13264,7 +15697,7 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <f>A43</f>
-        <v>7100</v>
+        <v>0</v>
       </c>
       <c r="B44">
         <f>B11</f>
@@ -13274,7 +15707,7 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <f>I11</f>
-        <v>7100</v>
+        <v>0</v>
       </c>
       <c r="B45">
         <f>B44</f>
